--- a/pred_ohlcv/54_21/2019-10-26 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 TRX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>12738.36964863006</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>418143.7247486301</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>401185.0126486301</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -860,7 +860,7 @@
         <v>419277.6570486301</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8093894.86596311</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>17624755.72126311</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>22397498.93918541</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>23333836.54088541</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>22468845.70978542</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>18738356.94378542</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19680881.63198542</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>20746442.87178542</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>22100973.34838542</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>21032825.60388542</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>20765487.70848542</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>20900509.44008542</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>20899688.29938542</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>20899938.29938542</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>27358192.1646815</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>26372682.4356815</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>26820210.8252815</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>26820210.8252815</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>26569919.1919815</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>27452462.6636815</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>27641289.5823815</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>28763605.1958815</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>28701099.4192815</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>28911574.4835815</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>30012892.43427628</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>28750897.20997628</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>31000514.65517628</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>29069052.60617628</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>28734495.22303782</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>27007853.01793782</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>24408840.57833755</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>25959354.57113259</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 TRX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>12738.36964863006</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>418143.7247486301</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>419277.6570486301</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8093894.86596311</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>17624755.72126311</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>22397498.93918541</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>23333836.54088541</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>22468845.70978542</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>18738356.94378542</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19680881.63198542</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>20746442.87178542</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>22100973.34838542</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>21032825.60388542</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>20765487.70848542</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>20900509.44008542</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>20899688.29938542</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>20899938.29938542</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>25663062.8348815</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>25663062.8348815</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>27703057.8466815</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>28912615.5342815</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>27358192.1646815</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>26719672.6680815</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26883186.1137815</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>26207466.0584815</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>26372682.4356815</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>26820210.8252815</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>26820210.8252815</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>26569919.1919815</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>27452462.6636815</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>27641289.5823815</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>28763605.1958815</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>28701099.4192815</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>28911574.4835815</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>30012892.43427628</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>28750897.20997628</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>31000514.65517628</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>29069052.60617628</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>28734495.22303782</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>27007853.01793782</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>24408840.57833755</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>25959354.57113259</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>27721407.54626688</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>27189643.96256688</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>27035941.01936688</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
